--- a/TestData/Gamma_SingleSgInfiniteBus.xlsx
+++ b/TestData/Gamma_SingleSgInfiniteBus.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-Communication-Isomorphism\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-Communication-Isomorphism\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C73F9EC7-1B77-44C9-9A08-D1BC85D5CB52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45185BDF-B855-4B02-8D18-935045167EEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -784,19 +784,19 @@
         <v>1</v>
       </c>
       <c r="C4" s="2">
-        <f>C5*10000</f>
+        <f>3.5*10000</f>
         <v>35000</v>
       </c>
       <c r="D4" s="2">
-        <f>D5*100000</f>
-        <v>1000000</v>
+        <f>0.1*10000</f>
+        <v>1000</v>
       </c>
       <c r="E4" s="2">
-        <v>1E-3</v>
+        <v>1E-4</v>
       </c>
       <c r="F4" s="2">
-        <f t="shared" ref="F4:F5" si="0">E4/10</f>
-        <v>1E-4</v>
+        <f t="shared" ref="F4" si="0">E4/10</f>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -813,13 +813,13 @@
         <v>3.5</v>
       </c>
       <c r="D5" s="2">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="E5" s="2">
         <v>0.05</v>
       </c>
       <c r="F5" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F4:F5" si="1">E5/10</f>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="G5" s="2"/>
@@ -1051,7 +1051,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
